--- a/SIMS/covid_response_plans/Matrix for data analysis from GO.xlsx
+++ b/SIMS/covid_response_plans/Matrix for data analysis from GO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guido Pizzini\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rodekruis-my.sharepoint.com/personal/jmargutti_redcross_nl/Documents/Rode Kruis/text_mining/SIMS/covid_response_plans/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9F7944-1D9F-4D71-8772-95C7343C43A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{D7A6762A-3991-477E-BC50-3955694C9EF2}"/>
+    <workbookView xWindow="-23148" yWindow="1836" windowWidth="23256" windowHeight="12576" xr2:uid="{D7A6762A-3991-477E-BC50-3955694C9EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,38 +468,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41F3088-D536-4F1C-8724-35BCD359B1C4}">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/SIMS/covid_response_plans/Matrix for data analysis from GO.xlsx
+++ b/SIMS/covid_response_plans/Matrix for data analysis from GO.xlsx
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41F3088-D536-4F1C-8724-35BCD359B1C4}">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
